--- a/public/officer_page/page_officer_data.xlsx
+++ b/public/officer_page/page_officer_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Projects\shpe_website\my_shpe_website\public\officer_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\officer_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82BBE0B-4DF4-4FAA-87CF-262E2932B02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE58536-D074-40A8-92D3-C9D162D1C5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -37,18 +37,9 @@
     <t>linkedInUrl</t>
   </si>
   <si>
-    <t>Co-President</t>
-  </si>
-  <si>
     <t>Mechanical Engineering</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/PJvRtd8t/jose-photo.webp</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jabp2/</t>
-  </si>
-  <si>
     <t>Zayra Coria-Bustos</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>Joel Garcia-Cervantes</t>
   </si>
   <si>
-    <t>VP of Membership</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://i.postimg.cc/FKGqpW4Q/joel-photo.webp	</t>
   </si>
   <si>
@@ -181,14 +169,20 @@
     <t>https://www.linkedin.com/in/adan-hernandez/</t>
   </si>
   <si>
-    <t>Jose Brambila Pelayo</t>
+    <t>https://www.linkedin.com/in/eric-tran-6844aa336?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Vice President</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,18 +198,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -236,6 +218,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,23 +243,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,15 +474,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,268 +500,230 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="F24" s="4"/>
-    </row>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="12.75" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E11" r:id="rId21" xr:uid="{A44C1652-7449-44D9-9572-1ACB824D8548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/officer_page/page_officer_data.xlsx
+++ b/public/officer_page/page_officer_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\officer_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\psu_shpe_website-main\psu_shpe_website-main\public\officer_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE58536-D074-40A8-92D3-C9D162D1C5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D021E-80AE-4972-AE8E-E653DF30D066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59715" yWindow="7590" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -37,9 +37,15 @@
     <t>linkedInUrl</t>
   </si>
   <si>
+    <t>Co-President</t>
+  </si>
+  <si>
     <t>Mechanical Engineering</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/jabp2/</t>
+  </si>
+  <si>
     <t>Zayra Coria-Bustos</t>
   </si>
   <si>
@@ -73,9 +79,6 @@
     <t>Treasurer</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/3RRqcX80/jorge-photo.webp</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/jorge-marquez-6108052a8/</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
     <t>Joel Garcia-Cervantes</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.postimg.cc/FKGqpW4Q/joel-photo.webp	</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/joel-garcia-cervantes/</t>
   </si>
   <si>
@@ -169,20 +169,26 @@
     <t>https://www.linkedin.com/in/adan-hernandez/</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/eric-tran-6844aa336?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
-    <t>President</t>
+    <t>Jose Brambila Pelayo</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VHBJzvq/IMG-5823.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/bymc9Jy2/jose-photo.webp</t>
   </si>
   <si>
     <t>Vice President</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Pw05fgB/IMG-6658.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,6 +204,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -245,16 +257,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,15 +489,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,164 +515,162 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>35</v>
@@ -666,64 +679,89 @@
         <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="4:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="4:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="24" spans="4:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="D19:E19"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E11" r:id="rId21" xr:uid="{A44C1652-7449-44D9-9572-1ACB824D8548}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D3" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/officer_page/page_officer_data.xlsx
+++ b/public/officer_page/page_officer_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\psu_shpe_website-main\psu_shpe_website-main\public\officer_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\officer_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D021E-80AE-4972-AE8E-E653DF30D066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1409596F-E8F5-49B2-9186-97C7CEA1675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59715" yWindow="7590" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -37,15 +37,9 @@
     <t>linkedInUrl</t>
   </si>
   <si>
-    <t>Co-President</t>
-  </si>
-  <si>
     <t>Mechanical Engineering</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/jabp2/</t>
-  </si>
-  <si>
     <t>Zayra Coria-Bustos</t>
   </si>
   <si>
@@ -169,19 +163,19 @@
     <t>https://www.linkedin.com/in/adan-hernandez/</t>
   </si>
   <si>
-    <t>Jose Brambila Pelayo</t>
-  </si>
-  <si>
     <t>https://i.ibb.co/VHBJzvq/IMG-5823.jpg</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/bymc9Jy2/jose-photo.webp</t>
-  </si>
-  <si>
     <t>Vice President</t>
   </si>
   <si>
     <t>https://i.ibb.co/Pw05fgB/IMG-6658.jpg</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/eric-tran-6844aa336?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
 </sst>
 </file>
@@ -259,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -270,6 +264,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,12 +487,12 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,253 +510,232 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="4:6" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="4:6" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="24" spans="4:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
-    </row>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="12.75" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="D19:E19"/>
+  <mergeCells count="2">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D3" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E11" r:id="rId21" xr:uid="{4E58DF48-B6BE-4397-B2F1-EA9670BE96CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/officer_page/page_officer_data.xlsx
+++ b/public/officer_page/page_officer_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\officer_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\repository_test\psu_shpe_website\public\officer_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1409596F-E8F5-49B2-9186-97C7CEA1675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31E231B-F46F-4FFF-BCA3-93BA194CF4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>https://www.linkedin.com/in/jorge-marquez-6108052a8/</t>
   </si>
   <si>
-    <t>Alex Osorio Trujillo</t>
-  </si>
-  <si>
     <t>Marketing/Social Media</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/eric-tran-6844aa336?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Alexander Osorio Trujillo</t>
   </si>
 </sst>
 </file>
@@ -261,10 +261,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,12 +487,12 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,12 +510,12 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -527,26 +527,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -563,58 +563,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -625,90 +625,90 @@
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="12.75" x14ac:dyDescent="0.35"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E16:F16"/>
